--- a/房仲財務管理系統/【DB】DomusOneSys 房仲財務管理系統 .xlsx
+++ b/房仲財務管理系統/【DB】DomusOneSys 房仲財務管理系統 .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\07 商務系統分析\房仲財務管理系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF64825-86A4-4480-B711-38C02FB2AE19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6CA243-A73B-42B9-8256-0A9B81D56CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13320" xr2:uid="{5A35F0BA-02DD-4604-9F38-E85B54D3FC02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13320" activeTab="1" xr2:uid="{5A35F0BA-02DD-4604-9F38-E85B54D3FC02}"/>
   </bookViews>
   <sheets>
-    <sheet name="資料字典" sheetId="1" r:id="rId1"/>
+    <sheet name="房仲管理系統資料庫   DomusOneSysDB" sheetId="1" r:id="rId1"/>
+    <sheet name="房仲財務系統資料庫   DomusOneFinDB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="157">
   <si>
     <t>Attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,18 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>會員編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,46 +64,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>縣市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,8 +87,84 @@
     <t>「Domus」是拉丁文的房屋，「One」寓意整合財務於一體</t>
   </si>
   <si>
+    <t xml:space="preserve"> Entity：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Name : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通訊地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_CreatedDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_UpdateDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_CreatedBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_UpdateBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">房仲財務管理系統資料庫   </t>
+      <t xml:space="preserve">房仲管理系統資料庫   </t>
     </r>
     <r>
       <rPr>
@@ -146,12 +179,511 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">房仲財務系統資料庫   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>DomusOneFinDB</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD hh:mm:ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工連絡電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工連絡電話編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連絡電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:失效; 1:有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊急聯絡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmergencyContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊急聯絡人編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊急聯絡人連絡電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmergencyContactTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊急連絡電話編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEID</t>
+  </si>
+  <si>
+    <t>DS_EEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEBirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EERegAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EEMailAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EENote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. Employee.DS_EEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EETID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EETNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EETStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. Employee.DS_ECID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECRel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECTNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECTStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工識別證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeIDCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EICID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EICPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EICExpiryDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EICRegDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司簡稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟簡稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTShortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTFranchise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTFranchiseShort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTTaxID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTPrincipal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司登記名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司內部資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登記日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTRegDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE_ENTEstDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterpriseProfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司內部資訊編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EPID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref.Enterprise.DS_ENTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司內部資訊項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EPCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EPItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_EPDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:勞保公司代號; 02:健保公司代號; 99:其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_DeleteDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_DeleteBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ECStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_ENTStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_DPTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_DPTName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_DPTStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門組別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref.Department.DS_DPTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門組別編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門組別名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_DGID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_DGName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_DGStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,30 +707,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -216,6 +725,43 @@
       <b/>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -296,36 +842,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,173 +1212,4732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276BFF78-F788-4A84-8A2A-E512572C262A}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="7" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>255</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14">
+        <v>255</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>255</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>255</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>500</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="20" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="22" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="H22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="33" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E37" s="14">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="14">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="14">
+        <v>255</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="14">
+        <v>500</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="49" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H50" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="14">
+        <v>30</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="62" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>5</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D62" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6">
+      <c r="G62" s="10"/>
+      <c r="H62" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="65" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="14">
+        <v>20</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="14">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="13"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="14">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="14">
+        <v>255</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="14">
+        <v>30</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="14">
+        <v>50</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="14">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="83" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="7">
+        <v>6</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8">
+      <c r="G83" s="10"/>
+      <c r="H83" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="14">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E88" s="14">
+        <v>30</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="14">
+        <v>100</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="13"/>
+      <c r="H92" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="95" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="7">
+        <v>7</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8">
+      <c r="G95" s="10"/>
+      <c r="H95" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="14">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="14">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="107" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="7">
+        <v>8</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="14">
+        <v>50</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="14">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="13"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="120" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="7"/>
+      <c r="C120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="13"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="13"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:H4"/>
+  <mergeCells count="19">
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73CD06-1C06-471B-AEA0-20026BC7C6DA}">
+  <dimension ref="B1:J130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="20" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="33" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="49" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="14">
+        <v>30</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="62" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>5</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="14">
+        <v>20</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="14">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="13"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="14">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="14">
+        <v>255</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="14">
+        <v>30</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="14">
+        <v>50</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="14">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="83" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="7">
+        <v>6</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="14">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="14">
+        <v>30</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="14">
+        <v>100</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="13"/>
+      <c r="H92" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="95" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="7">
+        <v>7</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="14">
+        <v>50</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="14">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="107" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="7">
+        <v>8</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="14">
+        <v>50</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="14">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="13"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="H117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="120" spans="2:8" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="7"/>
+      <c r="C120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="13"/>
+      <c r="H124" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="13"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="13"/>
+      <c r="H127" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="13"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" s="5" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/房仲財務管理系統/【DB】DomusOneSys 房仲財務管理系統 .xlsx
+++ b/房仲財務管理系統/【DB】DomusOneSys 房仲財務管理系統 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\07 商務系統分析\房仲財務管理系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\04_SystemAnalysis\房仲財務管理系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EB419B-385B-4F74-B7F2-1DA23E43041A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462B0D91-220F-4D85-A5D4-C3020389D7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19128" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="房仲管理系統資料庫   DomusOneSysDB" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7333" uniqueCount="1245">
   <si>
     <t>房仲管理系統資料庫   DomusOneSysDB</t>
   </si>
@@ -3821,12 +3821,274 @@
     <t>DS_CRLID</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>規章類型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>規章類型編號</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX：AA、AB、BA、CA</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績獎金、秘書規章、主管績效規章</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金計算方式</t>
+  </si>
+  <si>
+    <t>獎金計算方式</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金計算方式編號</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>當年度、適用起訖期間</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusCalculationMethods</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BCMID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BCMName</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BCMDescruption</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金規章</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusStructure</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金規章編號</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>規章名稱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用起始日</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用截止日</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>規章說明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. BonusCalculationMethods.DF_BCMID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>default true</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS_BSTitle</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDate_S</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDate_E</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDescription</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSIsActive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BCMIsActive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX：AA11201、AB11302</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>規章類型編號+民國年度+版號</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金規章明細</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusStructureDetails</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金規章明細編號</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. BonusStructure.DF_BSID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>級距(起)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>級距(止)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎金比例(%)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定獎金(元)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5,2)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(15,2)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7,2)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Name : </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,2)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDRange_S</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDRange_E</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDPercentage</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSDFixedAmount</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>人員規章套用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusStructureCategories</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSCID</t>
+  </si>
+  <si>
+    <t>DF_BSCID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSCName</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSCIsActive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. RegulationCategories.DF_BSCID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusStructureAssignment</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSAID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>人員規章套用編號</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>套用起始日</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>套用截止日</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSADate_S</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSADate_E</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_BSANote</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>但要確認該規章有沒有被套用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3968,8 +4230,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4042,6 +4311,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5B20B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -4092,7 +4367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4222,7 +4497,13 @@
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4234,8 +4515,17 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4245,6 +4535,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5B20B"/>
       <color rgb="FF17CAD3"/>
       <color rgb="FF0F748F"/>
       <color rgb="FFC5ACEA"/>
@@ -4628,7 +4919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J949"/>
   <sheetViews>
-    <sheetView topLeftCell="A655" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A694" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D675" sqref="D675"/>
     </sheetView>
   </sheetViews>
@@ -4645,15 +4936,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4666,14 +4957,14 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
@@ -5012,14 +5303,14 @@
       <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="7" t="s">
         <v>60</v>
       </c>
@@ -5280,14 +5571,14 @@
       <c r="C34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="7" t="s">
         <v>74</v>
       </c>
@@ -5612,14 +5903,14 @@
       <c r="C50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45" t="s">
+      <c r="E50" s="46"/>
+      <c r="F50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="45"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="7" t="s">
         <v>84</v>
       </c>
@@ -5884,14 +6175,14 @@
       <c r="C63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="44"/>
-      <c r="F63" s="45" t="s">
+      <c r="E63" s="46"/>
+      <c r="F63" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="45"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="7" t="s">
         <v>91</v>
       </c>
@@ -6316,14 +6607,14 @@
       <c r="C84" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="45" t="s">
+      <c r="E84" s="46"/>
+      <c r="F84" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="45"/>
+      <c r="G84" s="47"/>
       <c r="H84" s="7" t="s">
         <v>115</v>
       </c>
@@ -6568,14 +6859,14 @@
       <c r="C96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E96" s="44"/>
-      <c r="F96" s="45" t="s">
+      <c r="E96" s="46"/>
+      <c r="F96" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="45"/>
+      <c r="G96" s="47"/>
       <c r="H96" s="7" t="s">
         <v>122</v>
       </c>
@@ -6864,14 +7155,14 @@
       <c r="C110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E110" s="44"/>
-      <c r="F110" s="45" t="s">
+      <c r="E110" s="46"/>
+      <c r="F110" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="45"/>
+      <c r="G110" s="47"/>
       <c r="H110" s="7" t="s">
         <v>129</v>
       </c>
@@ -7136,14 +7427,14 @@
       <c r="C123" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="44" t="s">
+      <c r="D123" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E123" s="44"/>
-      <c r="F123" s="45" t="s">
+      <c r="E123" s="46"/>
+      <c r="F123" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="45"/>
+      <c r="G123" s="47"/>
       <c r="H123" s="7" t="s">
         <v>135</v>
       </c>
@@ -7408,14 +7699,14 @@
       <c r="C136" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="44" t="s">
+      <c r="D136" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E136" s="44"/>
-      <c r="F136" s="45" t="s">
+      <c r="E136" s="46"/>
+      <c r="F136" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="45"/>
+      <c r="G136" s="47"/>
       <c r="H136" s="7" t="s">
         <v>142</v>
       </c>
@@ -7680,14 +7971,14 @@
       <c r="C149" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="44" t="s">
+      <c r="D149" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E149" s="44"/>
-      <c r="F149" s="45" t="s">
+      <c r="E149" s="46"/>
+      <c r="F149" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G149" s="45"/>
+      <c r="G149" s="47"/>
       <c r="H149" s="7" t="s">
         <v>148</v>
       </c>
@@ -7888,14 +8179,14 @@
       <c r="C159" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="44" t="s">
+      <c r="D159" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E159" s="44"/>
-      <c r="F159" s="45" t="s">
+      <c r="E159" s="46"/>
+      <c r="F159" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G159" s="45"/>
+      <c r="G159" s="47"/>
       <c r="H159" s="7" t="s">
         <v>158</v>
       </c>
@@ -8002,14 +8293,14 @@
       <c r="C165" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="44" t="s">
+      <c r="D165" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E165" s="44"/>
-      <c r="F165" s="45" t="s">
+      <c r="E165" s="46"/>
+      <c r="F165" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G165" s="45"/>
+      <c r="G165" s="47"/>
       <c r="H165" s="7" t="s">
         <v>165</v>
       </c>
@@ -8346,14 +8637,14 @@
       <c r="C181" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="44" t="s">
+      <c r="D181" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="E181" s="44"/>
-      <c r="F181" s="45" t="s">
+      <c r="E181" s="46"/>
+      <c r="F181" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G181" s="45"/>
+      <c r="G181" s="47"/>
       <c r="H181" s="7" t="s">
         <v>179</v>
       </c>
@@ -8526,14 +8817,14 @@
       <c r="C190" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="44" t="s">
+      <c r="D190" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E190" s="44"/>
-      <c r="F190" s="45" t="s">
+      <c r="E190" s="46"/>
+      <c r="F190" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="45"/>
+      <c r="G190" s="47"/>
       <c r="H190" s="7" t="s">
         <v>186</v>
       </c>
@@ -8730,14 +9021,14 @@
       <c r="C200" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="44" t="s">
+      <c r="D200" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="E200" s="44"/>
-      <c r="F200" s="45" t="s">
+      <c r="E200" s="46"/>
+      <c r="F200" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G200" s="45"/>
+      <c r="G200" s="47"/>
       <c r="H200" s="7" t="s">
         <v>194</v>
       </c>
@@ -8824,14 +9115,14 @@
       <c r="C205" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="44" t="s">
+      <c r="D205" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="E205" s="44"/>
-      <c r="F205" s="45" t="s">
+      <c r="E205" s="46"/>
+      <c r="F205" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G205" s="45"/>
+      <c r="G205" s="47"/>
       <c r="H205" s="7" t="s">
         <v>200</v>
       </c>
@@ -9164,14 +9455,14 @@
       <c r="C221" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="44" t="s">
+      <c r="D221" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="E221" s="44"/>
-      <c r="F221" s="45" t="s">
+      <c r="E221" s="46"/>
+      <c r="F221" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G221" s="45"/>
+      <c r="G221" s="47"/>
       <c r="H221" s="7" t="s">
         <v>210</v>
       </c>
@@ -9454,14 +9745,14 @@
       <c r="C235" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="44" t="s">
+      <c r="D235" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="E235" s="44"/>
-      <c r="F235" s="45" t="s">
+      <c r="E235" s="46"/>
+      <c r="F235" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G235" s="45"/>
+      <c r="G235" s="47"/>
       <c r="H235" s="7" t="s">
         <v>223</v>
       </c>
@@ -9774,14 +10065,14 @@
       <c r="C250" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="44" t="s">
+      <c r="D250" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E250" s="44"/>
-      <c r="F250" s="45" t="s">
+      <c r="E250" s="46"/>
+      <c r="F250" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G250" s="45"/>
+      <c r="G250" s="47"/>
       <c r="H250" s="7" t="s">
         <v>230</v>
       </c>
@@ -9966,14 +10257,14 @@
       <c r="C260" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="44" t="s">
+      <c r="D260" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="E260" s="44"/>
-      <c r="F260" s="45" t="s">
+      <c r="E260" s="46"/>
+      <c r="F260" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G260" s="45"/>
+      <c r="G260" s="47"/>
       <c r="H260" s="7" t="s">
         <v>243</v>
       </c>
@@ -10256,14 +10547,14 @@
       <c r="C274" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D274" s="44" t="s">
+      <c r="D274" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="E274" s="44"/>
-      <c r="F274" s="45" t="s">
+      <c r="E274" s="46"/>
+      <c r="F274" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G274" s="45"/>
+      <c r="G274" s="47"/>
       <c r="H274" s="7" t="s">
         <v>254</v>
       </c>
@@ -10347,14 +10638,14 @@
       <c r="C279" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="44" t="s">
+      <c r="D279" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="E279" s="44"/>
-      <c r="F279" s="45" t="s">
+      <c r="E279" s="46"/>
+      <c r="F279" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G279" s="45"/>
+      <c r="G279" s="47"/>
       <c r="H279" s="7" t="s">
         <v>261</v>
       </c>
@@ -10573,14 +10864,14 @@
       <c r="C290" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D290" s="44" t="s">
+      <c r="D290" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="E290" s="44"/>
-      <c r="F290" s="45" t="s">
+      <c r="E290" s="46"/>
+      <c r="F290" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G290" s="45"/>
+      <c r="G290" s="47"/>
       <c r="H290" s="7" t="s">
         <v>269</v>
       </c>
@@ -10689,14 +10980,14 @@
       <c r="C296" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D296" s="44" t="s">
+      <c r="D296" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="E296" s="44"/>
-      <c r="F296" s="45" t="s">
+      <c r="E296" s="46"/>
+      <c r="F296" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G296" s="45"/>
+      <c r="G296" s="47"/>
       <c r="H296" s="7" t="s">
         <v>274</v>
       </c>
@@ -10780,14 +11071,14 @@
       <c r="C301" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D301" s="44" t="s">
+      <c r="D301" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="E301" s="44"/>
-      <c r="F301" s="45" t="s">
+      <c r="E301" s="46"/>
+      <c r="F301" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G301" s="45"/>
+      <c r="G301" s="47"/>
       <c r="H301" s="7" t="s">
         <v>281</v>
       </c>
@@ -10918,14 +11209,14 @@
       <c r="C308" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="44" t="s">
+      <c r="D308" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="E308" s="44"/>
-      <c r="F308" s="45" t="s">
+      <c r="E308" s="46"/>
+      <c r="F308" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G308" s="45"/>
+      <c r="G308" s="47"/>
       <c r="H308" s="7" t="s">
         <v>286</v>
       </c>
@@ -11204,14 +11495,14 @@
       <c r="C322" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D322" s="44" t="s">
+      <c r="D322" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="E322" s="44"/>
-      <c r="F322" s="45" t="s">
+      <c r="E322" s="46"/>
+      <c r="F322" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G322" s="45"/>
+      <c r="G322" s="47"/>
       <c r="H322" s="7" t="s">
         <v>301</v>
       </c>
@@ -11317,14 +11608,14 @@
       <c r="C328" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D328" s="44" t="s">
+      <c r="D328" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E328" s="44"/>
-      <c r="F328" s="45" t="s">
+      <c r="E328" s="46"/>
+      <c r="F328" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G328" s="45"/>
+      <c r="G328" s="47"/>
       <c r="H328" s="7" t="s">
         <v>308</v>
       </c>
@@ -11607,14 +11898,14 @@
       <c r="C342" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D342" s="44" t="s">
+      <c r="D342" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="E342" s="44"/>
-      <c r="F342" s="45" t="s">
+      <c r="E342" s="46"/>
+      <c r="F342" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G342" s="45"/>
+      <c r="G342" s="47"/>
       <c r="H342" s="7" t="s">
         <v>319</v>
       </c>
@@ -11720,14 +12011,14 @@
       <c r="C348" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D348" s="44" t="s">
+      <c r="D348" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="E348" s="44"/>
-      <c r="F348" s="45" t="s">
+      <c r="E348" s="46"/>
+      <c r="F348" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G348" s="45"/>
+      <c r="G348" s="47"/>
       <c r="H348" s="7" t="s">
         <v>327</v>
       </c>
@@ -12008,14 +12299,14 @@
       <c r="C362" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D362" s="44" t="s">
+      <c r="D362" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="E362" s="44"/>
-      <c r="F362" s="45" t="s">
+      <c r="E362" s="46"/>
+      <c r="F362" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G362" s="45"/>
+      <c r="G362" s="47"/>
       <c r="H362" s="7" t="s">
         <v>337</v>
       </c>
@@ -12272,14 +12563,14 @@
       <c r="C375" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D375" s="44" t="s">
+      <c r="D375" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="E375" s="44"/>
-      <c r="F375" s="45" t="s">
+      <c r="E375" s="46"/>
+      <c r="F375" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G375" s="45"/>
+      <c r="G375" s="47"/>
       <c r="H375" s="7" t="s">
         <v>348</v>
       </c>
@@ -12385,14 +12676,14 @@
       <c r="C381" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D381" s="44" t="s">
+      <c r="D381" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="E381" s="44"/>
-      <c r="F381" s="45" t="s">
+      <c r="E381" s="46"/>
+      <c r="F381" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G381" s="45"/>
+      <c r="G381" s="47"/>
       <c r="H381" s="7" t="s">
         <v>355</v>
       </c>
@@ -12647,14 +12938,14 @@
       <c r="C394" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D394" s="44" t="s">
+      <c r="D394" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="E394" s="44"/>
-      <c r="F394" s="45" t="s">
+      <c r="E394" s="46"/>
+      <c r="F394" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G394" s="45"/>
+      <c r="G394" s="47"/>
       <c r="H394" s="7" t="s">
         <v>368</v>
       </c>
@@ -12985,14 +13276,14 @@
       <c r="C410" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D410" s="44" t="s">
+      <c r="D410" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="E410" s="44"/>
-      <c r="F410" s="45" t="s">
+      <c r="E410" s="46"/>
+      <c r="F410" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G410" s="45"/>
+      <c r="G410" s="47"/>
       <c r="H410" s="7" t="s">
         <v>382</v>
       </c>
@@ -13323,14 +13614,14 @@
       <c r="C426" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D426" s="44" t="s">
+      <c r="D426" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="E426" s="44"/>
-      <c r="F426" s="45" t="s">
+      <c r="E426" s="46"/>
+      <c r="F426" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G426" s="45"/>
+      <c r="G426" s="47"/>
       <c r="H426" s="7" t="s">
         <v>392</v>
       </c>
@@ -13436,14 +13727,14 @@
       <c r="C432" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D432" s="44" t="s">
+      <c r="D432" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="E432" s="44"/>
-      <c r="F432" s="45" t="s">
+      <c r="E432" s="46"/>
+      <c r="F432" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G432" s="45"/>
+      <c r="G432" s="47"/>
       <c r="H432" s="7" t="s">
         <v>399</v>
       </c>
@@ -13684,14 +13975,14 @@
       <c r="C444" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D444" s="44" t="s">
+      <c r="D444" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="E444" s="44"/>
-      <c r="F444" s="45" t="s">
+      <c r="E444" s="46"/>
+      <c r="F444" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G444" s="45"/>
+      <c r="G444" s="47"/>
       <c r="H444" s="7" t="s">
         <v>408</v>
       </c>
@@ -13978,14 +14269,14 @@
       <c r="C458" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D458" s="44" t="s">
+      <c r="D458" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="E458" s="44"/>
-      <c r="F458" s="45" t="s">
+      <c r="E458" s="46"/>
+      <c r="F458" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G458" s="45"/>
+      <c r="G458" s="47"/>
       <c r="H458" s="34" t="s">
         <v>1161</v>
       </c>
@@ -14180,14 +14471,14 @@
       <c r="C468" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D468" s="44" t="s">
+      <c r="D468" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="E468" s="44"/>
-      <c r="F468" s="45" t="s">
+      <c r="E468" s="46"/>
+      <c r="F468" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G468" s="45"/>
+      <c r="G468" s="47"/>
       <c r="H468" s="7" t="s">
         <v>431</v>
       </c>
@@ -14406,14 +14697,14 @@
       <c r="C479" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D479" s="44" t="s">
+      <c r="D479" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="E479" s="44"/>
-      <c r="F479" s="45" t="s">
+      <c r="E479" s="46"/>
+      <c r="F479" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G479" s="45"/>
+      <c r="G479" s="47"/>
       <c r="H479" s="7" t="s">
         <v>438</v>
       </c>
@@ -14676,14 +14967,14 @@
       <c r="C492" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D492" s="44" t="s">
+      <c r="D492" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="E492" s="44"/>
-      <c r="F492" s="45" t="s">
+      <c r="E492" s="46"/>
+      <c r="F492" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G492" s="45"/>
+      <c r="G492" s="47"/>
       <c r="H492" s="7" t="s">
         <v>450</v>
       </c>
@@ -14922,14 +15213,14 @@
       <c r="C504" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D504" s="44" t="s">
+      <c r="D504" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="E504" s="44"/>
-      <c r="F504" s="45" t="s">
+      <c r="E504" s="46"/>
+      <c r="F504" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G504" s="45"/>
+      <c r="G504" s="47"/>
       <c r="H504" s="7" t="s">
         <v>460</v>
       </c>
@@ -15032,14 +15323,14 @@
       <c r="C510" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D510" s="44" t="s">
+      <c r="D510" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="E510" s="44"/>
-      <c r="F510" s="45" t="s">
+      <c r="E510" s="46"/>
+      <c r="F510" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G510" s="45"/>
+      <c r="G510" s="47"/>
       <c r="H510" s="34" t="s">
         <v>1165</v>
       </c>
@@ -15282,14 +15573,14 @@
       <c r="C522" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D522" s="46" t="s">
+      <c r="D522" s="48" t="s">
         <v>1175</v>
       </c>
-      <c r="E522" s="44"/>
-      <c r="F522" s="45" t="s">
+      <c r="E522" s="46"/>
+      <c r="F522" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G522" s="45"/>
+      <c r="G522" s="47"/>
       <c r="H522" s="34" t="s">
         <v>1177</v>
       </c>
@@ -15468,14 +15759,14 @@
       <c r="C531" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D531" s="44" t="s">
+      <c r="D531" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E531" s="44"/>
-      <c r="F531" s="45" t="s">
+      <c r="E531" s="46"/>
+      <c r="F531" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G531" s="45"/>
+      <c r="G531" s="47"/>
       <c r="H531" s="7" t="s">
         <v>474</v>
       </c>
@@ -15744,14 +16035,14 @@
       <c r="C544" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D544" s="44" t="s">
+      <c r="D544" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="E544" s="44"/>
-      <c r="F544" s="45" t="s">
+      <c r="E544" s="46"/>
+      <c r="F544" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G544" s="45"/>
+      <c r="G544" s="47"/>
       <c r="H544" s="7" t="s">
         <v>480</v>
       </c>
@@ -15972,14 +16263,14 @@
       <c r="C555" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D555" s="44" t="s">
+      <c r="D555" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="E555" s="44"/>
-      <c r="F555" s="45" t="s">
+      <c r="E555" s="46"/>
+      <c r="F555" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G555" s="45"/>
+      <c r="G555" s="47"/>
       <c r="H555" s="7" t="s">
         <v>487</v>
       </c>
@@ -16304,14 +16595,14 @@
       <c r="C571" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D571" s="44" t="s">
+      <c r="D571" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="E571" s="44"/>
-      <c r="F571" s="45" t="s">
+      <c r="E571" s="46"/>
+      <c r="F571" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G571" s="45"/>
+      <c r="G571" s="47"/>
       <c r="H571" s="7" t="s">
         <v>505</v>
       </c>
@@ -16436,14 +16727,14 @@
       <c r="C578" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D578" s="44" t="s">
+      <c r="D578" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="E578" s="44"/>
-      <c r="F578" s="45" t="s">
+      <c r="E578" s="46"/>
+      <c r="F578" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G578" s="45"/>
+      <c r="G578" s="47"/>
       <c r="H578" s="7" t="s">
         <v>515</v>
       </c>
@@ -16590,14 +16881,14 @@
       <c r="C586" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D586" s="44" t="s">
+      <c r="D586" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="E586" s="44"/>
-      <c r="F586" s="45" t="s">
+      <c r="E586" s="46"/>
+      <c r="F586" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G586" s="45"/>
+      <c r="G586" s="47"/>
       <c r="H586" s="7" t="s">
         <v>525</v>
       </c>
@@ -16700,14 +16991,14 @@
       <c r="C592" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D592" s="44" t="s">
+      <c r="D592" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="E592" s="44"/>
-      <c r="F592" s="45" t="s">
+      <c r="E592" s="46"/>
+      <c r="F592" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G592" s="45"/>
+      <c r="G592" s="47"/>
       <c r="H592" s="7" t="s">
         <v>531</v>
       </c>
@@ -17092,14 +17383,14 @@
       <c r="C611" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D611" s="44" t="s">
+      <c r="D611" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="E611" s="44"/>
-      <c r="F611" s="45" t="s">
+      <c r="E611" s="46"/>
+      <c r="F611" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G611" s="45"/>
+      <c r="G611" s="47"/>
       <c r="H611" s="7" t="s">
         <v>556</v>
       </c>
@@ -17205,14 +17496,14 @@
       <c r="C617" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D617" s="44" t="s">
+      <c r="D617" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="E617" s="44"/>
-      <c r="F617" s="45" t="s">
+      <c r="E617" s="46"/>
+      <c r="F617" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G617" s="45"/>
+      <c r="G617" s="47"/>
       <c r="H617" s="7" t="s">
         <v>563</v>
       </c>
@@ -17318,14 +17609,14 @@
       <c r="C623" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D623" s="44" t="s">
+      <c r="D623" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="E623" s="44"/>
-      <c r="F623" s="45" t="s">
+      <c r="E623" s="46"/>
+      <c r="F623" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G623" s="45"/>
+      <c r="G623" s="47"/>
       <c r="H623" s="7" t="s">
         <v>570</v>
       </c>
@@ -17888,14 +18179,14 @@
       <c r="C650" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D650" s="44" t="s">
+      <c r="D650" s="46" t="s">
         <v>598</v>
       </c>
-      <c r="E650" s="44"/>
-      <c r="F650" s="45" t="s">
+      <c r="E650" s="46"/>
+      <c r="F650" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G650" s="45"/>
+      <c r="G650" s="47"/>
       <c r="H650" s="7" t="s">
         <v>599</v>
       </c>
@@ -18040,14 +18331,14 @@
       <c r="C658" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D658" s="44" t="s">
+      <c r="D658" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="E658" s="44"/>
-      <c r="F658" s="45" t="s">
+      <c r="E658" s="46"/>
+      <c r="F658" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G658" s="45"/>
+      <c r="G658" s="47"/>
       <c r="H658" s="7" t="s">
         <v>610</v>
       </c>
@@ -18170,14 +18461,14 @@
       <c r="C665" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D665" s="44" t="s">
+      <c r="D665" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="E665" s="44"/>
-      <c r="F665" s="45" t="s">
+      <c r="E665" s="46"/>
+      <c r="F665" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G665" s="45"/>
+      <c r="G665" s="47"/>
       <c r="H665" s="7" t="s">
         <v>618</v>
       </c>
@@ -18398,14 +18689,14 @@
       <c r="C676" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D676" s="44" t="s">
+      <c r="D676" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="E676" s="44"/>
-      <c r="F676" s="45" t="s">
+      <c r="E676" s="46"/>
+      <c r="F676" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G676" s="45"/>
+      <c r="G676" s="47"/>
       <c r="H676" s="7" t="s">
         <v>625</v>
       </c>
@@ -18508,14 +18799,14 @@
       <c r="C682" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D682" s="44" t="s">
+      <c r="D682" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="E682" s="44"/>
-      <c r="F682" s="45" t="s">
+      <c r="E682" s="46"/>
+      <c r="F682" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G682" s="45"/>
+      <c r="G682" s="47"/>
       <c r="H682" s="7" t="s">
         <v>632</v>
       </c>
@@ -18716,14 +19007,14 @@
       <c r="C692" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D692" s="44" t="s">
+      <c r="D692" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="E692" s="44"/>
-      <c r="F692" s="45" t="s">
+      <c r="E692" s="46"/>
+      <c r="F692" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G692" s="45"/>
+      <c r="G692" s="47"/>
       <c r="H692" s="7" t="s">
         <v>638</v>
       </c>
@@ -18826,14 +19117,14 @@
       <c r="C698" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D698" s="44" t="s">
+      <c r="D698" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="E698" s="44"/>
-      <c r="F698" s="45" t="s">
+      <c r="E698" s="46"/>
+      <c r="F698" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G698" s="45"/>
+      <c r="G698" s="47"/>
       <c r="H698" s="7" t="s">
         <v>644</v>
       </c>
@@ -19182,14 +19473,14 @@
       <c r="C715" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D715" s="44" t="s">
+      <c r="D715" s="46" t="s">
         <v>658</v>
       </c>
-      <c r="E715" s="44"/>
-      <c r="F715" s="45" t="s">
+      <c r="E715" s="46"/>
+      <c r="F715" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G715" s="45"/>
+      <c r="G715" s="47"/>
       <c r="H715" s="7" t="s">
         <v>659</v>
       </c>
@@ -19292,14 +19583,14 @@
       <c r="C721" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D721" s="44" t="s">
+      <c r="D721" s="46" t="s">
         <v>664</v>
       </c>
-      <c r="E721" s="44"/>
-      <c r="F721" s="45" t="s">
+      <c r="E721" s="46"/>
+      <c r="F721" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G721" s="45"/>
+      <c r="G721" s="47"/>
       <c r="H721" s="7" t="s">
         <v>665</v>
       </c>
@@ -19604,14 +19895,14 @@
       <c r="C736" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D736" s="44" t="s">
+      <c r="D736" s="46" t="s">
         <v>676</v>
       </c>
-      <c r="E736" s="44"/>
-      <c r="F736" s="45" t="s">
+      <c r="E736" s="46"/>
+      <c r="F736" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G736" s="45"/>
+      <c r="G736" s="47"/>
       <c r="H736" s="7" t="s">
         <v>677</v>
       </c>
@@ -19873,14 +20164,14 @@
       <c r="C749" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D749" s="44" t="s">
+      <c r="D749" s="46" t="s">
         <v>687</v>
       </c>
-      <c r="E749" s="44"/>
-      <c r="F749" s="45" t="s">
+      <c r="E749" s="46"/>
+      <c r="F749" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G749" s="45"/>
+      <c r="G749" s="47"/>
       <c r="H749" s="7" t="s">
         <v>688</v>
       </c>
@@ -20147,14 +20438,14 @@
       <c r="C762" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D762" s="44" t="s">
+      <c r="D762" s="46" t="s">
         <v>695</v>
       </c>
-      <c r="E762" s="44"/>
-      <c r="F762" s="45" t="s">
+      <c r="E762" s="46"/>
+      <c r="F762" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G762" s="45"/>
+      <c r="G762" s="47"/>
       <c r="H762" s="7" t="s">
         <v>696</v>
       </c>
@@ -20260,14 +20551,14 @@
       <c r="C768" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D768" s="44" t="s">
+      <c r="D768" s="46" t="s">
         <v>702</v>
       </c>
-      <c r="E768" s="44"/>
-      <c r="F768" s="45" t="s">
+      <c r="E768" s="46"/>
+      <c r="F768" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G768" s="45"/>
+      <c r="G768" s="47"/>
       <c r="H768" s="7" t="s">
         <v>703</v>
       </c>
@@ -20658,14 +20949,14 @@
       <c r="C787" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D787" s="44" t="s">
+      <c r="D787" s="46" t="s">
         <v>716</v>
       </c>
-      <c r="E787" s="44"/>
-      <c r="F787" s="45" t="s">
+      <c r="E787" s="46"/>
+      <c r="F787" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G787" s="45"/>
+      <c r="G787" s="47"/>
       <c r="H787" s="7" t="s">
         <v>717</v>
       </c>
@@ -20862,14 +21153,14 @@
       <c r="C797" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D797" s="44" t="s">
+      <c r="D797" s="46" t="s">
         <v>722</v>
       </c>
-      <c r="E797" s="44"/>
-      <c r="F797" s="45" t="s">
+      <c r="E797" s="46"/>
+      <c r="F797" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G797" s="45"/>
+      <c r="G797" s="47"/>
       <c r="H797" s="7" t="s">
         <v>723</v>
       </c>
@@ -21112,14 +21403,14 @@
       <c r="C809" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D809" s="44" t="s">
+      <c r="D809" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="E809" s="44"/>
-      <c r="F809" s="45" t="s">
+      <c r="E809" s="46"/>
+      <c r="F809" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G809" s="45"/>
+      <c r="G809" s="47"/>
       <c r="H809" s="7" t="s">
         <v>730</v>
       </c>
@@ -21492,14 +21783,14 @@
       <c r="C827" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D827" s="44" t="s">
+      <c r="D827" s="46" t="s">
         <v>740</v>
       </c>
-      <c r="E827" s="44"/>
-      <c r="F827" s="45" t="s">
+      <c r="E827" s="46"/>
+      <c r="F827" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G827" s="45"/>
+      <c r="G827" s="47"/>
       <c r="H827" s="7" t="s">
         <v>741</v>
       </c>
@@ -21605,14 +21896,14 @@
       <c r="C833" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D833" s="44" t="s">
+      <c r="D833" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="E833" s="44"/>
-      <c r="F833" s="45" t="s">
+      <c r="E833" s="46"/>
+      <c r="F833" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G833" s="45"/>
+      <c r="G833" s="47"/>
       <c r="H833" s="7" t="s">
         <v>748</v>
       </c>
@@ -22123,14 +22414,14 @@
       <c r="C857" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D857" s="44" t="s">
+      <c r="D857" s="46" t="s">
         <v>771</v>
       </c>
-      <c r="E857" s="44"/>
-      <c r="F857" s="45" t="s">
+      <c r="E857" s="46"/>
+      <c r="F857" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G857" s="45"/>
+      <c r="G857" s="47"/>
       <c r="H857" s="7" t="s">
         <v>772</v>
       </c>
@@ -22365,14 +22656,14 @@
       <c r="C869" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D869" s="44" t="s">
+      <c r="D869" s="46" t="s">
         <v>780</v>
       </c>
-      <c r="E869" s="44"/>
-      <c r="F869" s="45" t="s">
+      <c r="E869" s="46"/>
+      <c r="F869" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G869" s="45"/>
+      <c r="G869" s="47"/>
       <c r="H869" s="7" t="s">
         <v>781</v>
       </c>
@@ -22495,14 +22786,14 @@
       <c r="C876" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D876" s="44" t="s">
+      <c r="D876" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="E876" s="44"/>
-      <c r="F876" s="45" t="s">
+      <c r="E876" s="46"/>
+      <c r="F876" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G876" s="45"/>
+      <c r="G876" s="47"/>
       <c r="H876" s="7" t="s">
         <v>789</v>
       </c>
@@ -22811,14 +23102,14 @@
       <c r="C891" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D891" s="44" t="s">
+      <c r="D891" s="46" t="s">
         <v>799</v>
       </c>
-      <c r="E891" s="44"/>
-      <c r="F891" s="45" t="s">
+      <c r="E891" s="46"/>
+      <c r="F891" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G891" s="45"/>
+      <c r="G891" s="47"/>
       <c r="H891" s="7" t="s">
         <v>800</v>
       </c>
@@ -22924,14 +23215,14 @@
       <c r="C897" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D897" s="44" t="s">
+      <c r="D897" s="46" t="s">
         <v>806</v>
       </c>
-      <c r="E897" s="44"/>
-      <c r="F897" s="45" t="s">
+      <c r="E897" s="46"/>
+      <c r="F897" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G897" s="45"/>
+      <c r="G897" s="47"/>
       <c r="H897" s="7" t="s">
         <v>807</v>
       </c>
@@ -23198,14 +23489,14 @@
       <c r="C910" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D910" s="44" t="s">
+      <c r="D910" s="46" t="s">
         <v>814</v>
       </c>
-      <c r="E910" s="44"/>
-      <c r="F910" s="45" t="s">
+      <c r="E910" s="46"/>
+      <c r="F910" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G910" s="45"/>
+      <c r="G910" s="47"/>
       <c r="H910" s="7" t="s">
         <v>815</v>
       </c>
@@ -23311,14 +23602,14 @@
       <c r="C916" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D916" s="44" t="s">
+      <c r="D916" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="E916" s="44"/>
-      <c r="F916" s="45" t="s">
+      <c r="E916" s="46"/>
+      <c r="F916" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G916" s="45"/>
+      <c r="G916" s="47"/>
       <c r="H916" s="7" t="s">
         <v>822</v>
       </c>
@@ -23761,14 +24052,14 @@
       <c r="C937" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D937" s="44" t="s">
+      <c r="D937" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="E937" s="44"/>
-      <c r="F937" s="45" t="s">
+      <c r="E937" s="46"/>
+      <c r="F937" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G937" s="45"/>
+      <c r="G937" s="47"/>
       <c r="H937" s="34" t="s">
         <v>1060</v>
       </c>
@@ -24049,6 +24340,157 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="F328:G328"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="D348:E348"/>
+    <mergeCell ref="F348:G348"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="F362:G362"/>
+    <mergeCell ref="D375:E375"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="F381:G381"/>
+    <mergeCell ref="D394:E394"/>
+    <mergeCell ref="F394:G394"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="F410:G410"/>
+    <mergeCell ref="D426:E426"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="D432:E432"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="D444:E444"/>
+    <mergeCell ref="F444:G444"/>
+    <mergeCell ref="D458:E458"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="D468:E468"/>
+    <mergeCell ref="F468:G468"/>
+    <mergeCell ref="D479:E479"/>
+    <mergeCell ref="F479:G479"/>
+    <mergeCell ref="D492:E492"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="D504:E504"/>
+    <mergeCell ref="F504:G504"/>
+    <mergeCell ref="D510:E510"/>
+    <mergeCell ref="F510:G510"/>
+    <mergeCell ref="D531:E531"/>
+    <mergeCell ref="F531:G531"/>
+    <mergeCell ref="D544:E544"/>
+    <mergeCell ref="F544:G544"/>
+    <mergeCell ref="D555:E555"/>
+    <mergeCell ref="F555:G555"/>
+    <mergeCell ref="D571:E571"/>
+    <mergeCell ref="F571:G571"/>
+    <mergeCell ref="D522:E522"/>
+    <mergeCell ref="F522:G522"/>
+    <mergeCell ref="D578:E578"/>
+    <mergeCell ref="F578:G578"/>
+    <mergeCell ref="D586:E586"/>
+    <mergeCell ref="F586:G586"/>
+    <mergeCell ref="D592:E592"/>
+    <mergeCell ref="F592:G592"/>
+    <mergeCell ref="D611:E611"/>
+    <mergeCell ref="F611:G611"/>
+    <mergeCell ref="D617:E617"/>
+    <mergeCell ref="F617:G617"/>
+    <mergeCell ref="D623:E623"/>
+    <mergeCell ref="F623:G623"/>
+    <mergeCell ref="D650:E650"/>
+    <mergeCell ref="F650:G650"/>
+    <mergeCell ref="D658:E658"/>
+    <mergeCell ref="F658:G658"/>
+    <mergeCell ref="D665:E665"/>
+    <mergeCell ref="F665:G665"/>
+    <mergeCell ref="D676:E676"/>
+    <mergeCell ref="F676:G676"/>
+    <mergeCell ref="D682:E682"/>
+    <mergeCell ref="F682:G682"/>
+    <mergeCell ref="D692:E692"/>
+    <mergeCell ref="F692:G692"/>
+    <mergeCell ref="D698:E698"/>
+    <mergeCell ref="F698:G698"/>
+    <mergeCell ref="D715:E715"/>
+    <mergeCell ref="F715:G715"/>
+    <mergeCell ref="D721:E721"/>
+    <mergeCell ref="F721:G721"/>
+    <mergeCell ref="D736:E736"/>
+    <mergeCell ref="F736:G736"/>
+    <mergeCell ref="D749:E749"/>
+    <mergeCell ref="F749:G749"/>
+    <mergeCell ref="D762:E762"/>
+    <mergeCell ref="F762:G762"/>
+    <mergeCell ref="D768:E768"/>
+    <mergeCell ref="F768:G768"/>
+    <mergeCell ref="D787:E787"/>
+    <mergeCell ref="F787:G787"/>
+    <mergeCell ref="D797:E797"/>
+    <mergeCell ref="F797:G797"/>
+    <mergeCell ref="D809:E809"/>
+    <mergeCell ref="F809:G809"/>
+    <mergeCell ref="D827:E827"/>
+    <mergeCell ref="F827:G827"/>
+    <mergeCell ref="D833:E833"/>
+    <mergeCell ref="F833:G833"/>
+    <mergeCell ref="D857:E857"/>
+    <mergeCell ref="F857:G857"/>
     <mergeCell ref="D916:E916"/>
     <mergeCell ref="F916:G916"/>
     <mergeCell ref="D937:E937"/>
@@ -24063,157 +24505,6 @@
     <mergeCell ref="F897:G897"/>
     <mergeCell ref="D910:E910"/>
     <mergeCell ref="F910:G910"/>
-    <mergeCell ref="D797:E797"/>
-    <mergeCell ref="F797:G797"/>
-    <mergeCell ref="D809:E809"/>
-    <mergeCell ref="F809:G809"/>
-    <mergeCell ref="D827:E827"/>
-    <mergeCell ref="F827:G827"/>
-    <mergeCell ref="D833:E833"/>
-    <mergeCell ref="F833:G833"/>
-    <mergeCell ref="D857:E857"/>
-    <mergeCell ref="F857:G857"/>
-    <mergeCell ref="D736:E736"/>
-    <mergeCell ref="F736:G736"/>
-    <mergeCell ref="D749:E749"/>
-    <mergeCell ref="F749:G749"/>
-    <mergeCell ref="D762:E762"/>
-    <mergeCell ref="F762:G762"/>
-    <mergeCell ref="D768:E768"/>
-    <mergeCell ref="F768:G768"/>
-    <mergeCell ref="D787:E787"/>
-    <mergeCell ref="F787:G787"/>
-    <mergeCell ref="D682:E682"/>
-    <mergeCell ref="F682:G682"/>
-    <mergeCell ref="D692:E692"/>
-    <mergeCell ref="F692:G692"/>
-    <mergeCell ref="D698:E698"/>
-    <mergeCell ref="F698:G698"/>
-    <mergeCell ref="D715:E715"/>
-    <mergeCell ref="F715:G715"/>
-    <mergeCell ref="D721:E721"/>
-    <mergeCell ref="F721:G721"/>
-    <mergeCell ref="D623:E623"/>
-    <mergeCell ref="F623:G623"/>
-    <mergeCell ref="D650:E650"/>
-    <mergeCell ref="F650:G650"/>
-    <mergeCell ref="D658:E658"/>
-    <mergeCell ref="F658:G658"/>
-    <mergeCell ref="D665:E665"/>
-    <mergeCell ref="F665:G665"/>
-    <mergeCell ref="D676:E676"/>
-    <mergeCell ref="F676:G676"/>
-    <mergeCell ref="D578:E578"/>
-    <mergeCell ref="F578:G578"/>
-    <mergeCell ref="D586:E586"/>
-    <mergeCell ref="F586:G586"/>
-    <mergeCell ref="D592:E592"/>
-    <mergeCell ref="F592:G592"/>
-    <mergeCell ref="D611:E611"/>
-    <mergeCell ref="F611:G611"/>
-    <mergeCell ref="D617:E617"/>
-    <mergeCell ref="F617:G617"/>
-    <mergeCell ref="D510:E510"/>
-    <mergeCell ref="F510:G510"/>
-    <mergeCell ref="D531:E531"/>
-    <mergeCell ref="F531:G531"/>
-    <mergeCell ref="D544:E544"/>
-    <mergeCell ref="F544:G544"/>
-    <mergeCell ref="D555:E555"/>
-    <mergeCell ref="F555:G555"/>
-    <mergeCell ref="D571:E571"/>
-    <mergeCell ref="F571:G571"/>
-    <mergeCell ref="D522:E522"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="D458:E458"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="D468:E468"/>
-    <mergeCell ref="F468:G468"/>
-    <mergeCell ref="D479:E479"/>
-    <mergeCell ref="F479:G479"/>
-    <mergeCell ref="D492:E492"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="D504:E504"/>
-    <mergeCell ref="F504:G504"/>
-    <mergeCell ref="D394:E394"/>
-    <mergeCell ref="F394:G394"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="F410:G410"/>
-    <mergeCell ref="D426:E426"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="D432:E432"/>
-    <mergeCell ref="F432:G432"/>
-    <mergeCell ref="D444:E444"/>
-    <mergeCell ref="F444:G444"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="D348:E348"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="F362:G362"/>
-    <mergeCell ref="D375:E375"/>
-    <mergeCell ref="F375:G375"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="F381:G381"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="D328:E328"/>
-    <mergeCell ref="F328:G328"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24224,10 +24515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J345"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C338" sqref="C338"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F376" sqref="F376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24237,21 +24528,21 @@
     <col min="3" max="3" width="37.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
     <col min="5" max="7" width="14.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="50.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.77734375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>841</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
@@ -24264,14 +24555,14 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>842</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="7" t="s">
         <v>843</v>
       </c>
@@ -24377,14 +24668,14 @@
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="46" t="s">
         <v>849</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="7" t="s">
         <v>850</v>
       </c>
@@ -24490,14 +24781,14 @@
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="7" t="s">
         <v>857</v>
       </c>
@@ -24631,8 +24922,8 @@
       <c r="D22" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>582</v>
+      <c r="E22" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>17</v>
@@ -24876,14 +25167,14 @@
       <c r="C34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="46" t="s">
         <v>870</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="7" t="s">
         <v>871</v>
       </c>
@@ -25104,14 +25395,14 @@
       <c r="C45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="46" t="s">
         <v>878</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="7" t="s">
         <v>879</v>
       </c>
@@ -25217,14 +25508,14 @@
       <c r="C51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="46" t="s">
         <v>885</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45" t="s">
+      <c r="E51" s="46"/>
+      <c r="F51" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="14" t="s">
         <v>886</v>
       </c>
@@ -25382,8 +25673,8 @@
       <c r="D58" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>582</v>
+      <c r="E58" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>45</v>
@@ -25717,14 +26008,14 @@
       <c r="C74" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="50" t="s">
         <v>902</v>
       </c>
-      <c r="E74" s="44"/>
-      <c r="F74" s="45" t="s">
+      <c r="E74" s="46"/>
+      <c r="F74" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="45"/>
+      <c r="G74" s="47"/>
       <c r="H74" s="14" t="s">
         <v>903</v>
       </c>
@@ -25834,8 +26125,8 @@
       <c r="D79" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>582</v>
+      <c r="E79" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>17</v>
@@ -25856,8 +26147,8 @@
       <c r="D80" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>582</v>
+      <c r="E80" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>17</v>
@@ -25967,14 +26258,14 @@
       <c r="C86" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="48" t="s">
         <v>987</v>
       </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="45" t="s">
+      <c r="E86" s="46"/>
+      <c r="F86" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="45"/>
+      <c r="G86" s="47"/>
       <c r="H86" s="34" t="s">
         <v>993</v>
       </c>
@@ -26080,14 +26371,14 @@
       <c r="C92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="50" t="s">
         <v>913</v>
       </c>
-      <c r="E92" s="44"/>
-      <c r="F92" s="45" t="s">
+      <c r="E92" s="46"/>
+      <c r="F92" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="45"/>
+      <c r="G92" s="47"/>
       <c r="H92" s="34" t="s">
         <v>988</v>
       </c>
@@ -26219,8 +26510,8 @@
       <c r="D98" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>582</v>
+      <c r="E98" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>17</v>
@@ -26350,14 +26641,14 @@
       <c r="C105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="47" t="s">
+      <c r="D105" s="50" t="s">
         <v>917</v>
       </c>
-      <c r="E105" s="44"/>
-      <c r="F105" s="45" t="s">
+      <c r="E105" s="46"/>
+      <c r="F105" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="45"/>
+      <c r="G105" s="47"/>
       <c r="H105" s="14" t="s">
         <v>918</v>
       </c>
@@ -26578,14 +26869,14 @@
       <c r="C116" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="47" t="s">
+      <c r="D116" s="50" t="s">
         <v>922</v>
       </c>
-      <c r="E116" s="44"/>
-      <c r="F116" s="45" t="s">
+      <c r="E116" s="46"/>
+      <c r="F116" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="45"/>
+      <c r="G116" s="47"/>
       <c r="H116" s="14" t="s">
         <v>923</v>
       </c>
@@ -26765,8 +27056,8 @@
       <c r="D124" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>582</v>
+      <c r="E124" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>17</v>
@@ -26918,14 +27209,14 @@
       <c r="C132" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="D132" s="48" t="s">
         <v>1000</v>
       </c>
-      <c r="E132" s="44"/>
-      <c r="F132" s="45" t="s">
+      <c r="E132" s="46"/>
+      <c r="F132" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G132" s="45"/>
+      <c r="G132" s="47"/>
       <c r="H132" s="34" t="s">
         <v>1002</v>
       </c>
@@ -27031,14 +27322,14 @@
       <c r="C138" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="46" t="s">
+      <c r="D138" s="48" t="s">
         <v>1015</v>
       </c>
-      <c r="E138" s="44"/>
-      <c r="F138" s="45" t="s">
+      <c r="E138" s="46"/>
+      <c r="F138" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="45"/>
+      <c r="G138" s="47"/>
       <c r="H138" s="34" t="s">
         <v>1017</v>
       </c>
@@ -27142,14 +27433,14 @@
       <c r="C144" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="46" t="s">
+      <c r="D144" s="48" t="s">
         <v>1007</v>
       </c>
-      <c r="E144" s="44"/>
-      <c r="F144" s="45" t="s">
+      <c r="E144" s="46"/>
+      <c r="F144" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="45"/>
+      <c r="G144" s="47"/>
       <c r="H144" s="34" t="s">
         <v>1013</v>
       </c>
@@ -27349,8 +27640,8 @@
       <c r="D153" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>582</v>
+      <c r="E153" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>17</v>
@@ -27502,14 +27793,14 @@
       <c r="C161" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="46" t="s">
+      <c r="D161" s="48" t="s">
         <v>1028</v>
       </c>
-      <c r="E161" s="44"/>
-      <c r="F161" s="45" t="s">
+      <c r="E161" s="46"/>
+      <c r="F161" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="45"/>
+      <c r="G161" s="47"/>
       <c r="H161" s="34" t="s">
         <v>1029</v>
       </c>
@@ -27639,8 +27930,8 @@
       <c r="D167" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E167" s="9" t="s">
-        <v>582</v>
+      <c r="E167" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>17</v>
@@ -27768,14 +28059,14 @@
       <c r="C174" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="46" t="s">
+      <c r="D174" s="48" t="s">
         <v>943</v>
       </c>
-      <c r="E174" s="44"/>
-      <c r="F174" s="45" t="s">
+      <c r="E174" s="46"/>
+      <c r="F174" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G174" s="45"/>
+      <c r="G174" s="47"/>
       <c r="H174" s="34" t="s">
         <v>944</v>
       </c>
@@ -27881,14 +28172,14 @@
       <c r="C180" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="46" t="s">
+      <c r="D180" s="48" t="s">
         <v>937</v>
       </c>
-      <c r="E180" s="44"/>
-      <c r="F180" s="45" t="s">
+      <c r="E180" s="46"/>
+      <c r="F180" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="45"/>
+      <c r="G180" s="47"/>
       <c r="H180" s="34" t="s">
         <v>970</v>
       </c>
@@ -27994,14 +28285,14 @@
       <c r="C186" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="46" t="s">
+      <c r="D186" s="48" t="s">
         <v>934</v>
       </c>
-      <c r="E186" s="44"/>
-      <c r="F186" s="45" t="s">
+      <c r="E186" s="46"/>
+      <c r="F186" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G186" s="45"/>
+      <c r="G186" s="47"/>
       <c r="H186" s="34" t="s">
         <v>951</v>
       </c>
@@ -28221,8 +28512,8 @@
       <c r="D196" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E196" s="9" t="s">
-        <v>582</v>
+      <c r="E196" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>17</v>
@@ -28243,8 +28534,8 @@
       <c r="D197" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E197" s="9" t="s">
-        <v>582</v>
+      <c r="E197" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>17</v>
@@ -28265,8 +28556,8 @@
       <c r="D198" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E198" s="9" t="s">
-        <v>582</v>
+      <c r="E198" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>17</v>
@@ -28420,14 +28711,14 @@
       <c r="C206" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="46" t="s">
+      <c r="D206" s="48" t="s">
         <v>977</v>
       </c>
-      <c r="E206" s="44"/>
-      <c r="F206" s="45" t="s">
+      <c r="E206" s="46"/>
+      <c r="F206" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="45"/>
+      <c r="G206" s="47"/>
       <c r="H206" s="34" t="s">
         <v>979</v>
       </c>
@@ -28535,8 +28826,8 @@
       <c r="D211" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E211" s="9" t="s">
-        <v>582</v>
+      <c r="E211" s="32" t="s">
+        <v>1221</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>17</v>
@@ -28668,14 +28959,14 @@
       <c r="C218" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D218" s="46" t="s">
+      <c r="D218" s="48" t="s">
         <v>1103</v>
       </c>
-      <c r="E218" s="44"/>
-      <c r="F218" s="45" t="s">
+      <c r="E218" s="46"/>
+      <c r="F218" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="45"/>
+      <c r="G218" s="47"/>
       <c r="H218" s="34" t="s">
         <v>1104</v>
       </c>
@@ -28781,14 +29072,14 @@
       <c r="C224" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="46" t="s">
+      <c r="D224" s="48" t="s">
         <v>1038</v>
       </c>
-      <c r="E224" s="44"/>
-      <c r="F224" s="45" t="s">
+      <c r="E224" s="46"/>
+      <c r="F224" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="45"/>
+      <c r="G224" s="47"/>
       <c r="H224" s="34" t="s">
         <v>1048</v>
       </c>
@@ -29139,14 +29430,14 @@
       <c r="C241" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="46" t="s">
+      <c r="D241" s="48" t="s">
         <v>1059</v>
       </c>
-      <c r="E241" s="44"/>
-      <c r="F241" s="45" t="s">
+      <c r="E241" s="46"/>
+      <c r="F241" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G241" s="45"/>
+      <c r="G241" s="47"/>
       <c r="H241" s="34" t="s">
         <v>1061</v>
       </c>
@@ -29256,8 +29547,8 @@
       <c r="D246" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E246" s="9" t="s">
-        <v>582</v>
+      <c r="E246" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F246" s="9" t="s">
         <v>17</v>
@@ -29477,14 +29768,14 @@
       <c r="C257" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="46" t="s">
+      <c r="D257" s="48" t="s">
         <v>1077</v>
       </c>
-      <c r="E257" s="44"/>
-      <c r="F257" s="45" t="s">
+      <c r="E257" s="46"/>
+      <c r="F257" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G257" s="45"/>
+      <c r="G257" s="47"/>
       <c r="H257" s="34" t="s">
         <v>1079</v>
       </c>
@@ -29590,14 +29881,14 @@
       <c r="C263" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="46" t="s">
+      <c r="D263" s="48" t="s">
         <v>1084</v>
       </c>
-      <c r="E263" s="44"/>
-      <c r="F263" s="45" t="s">
+      <c r="E263" s="46"/>
+      <c r="F263" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G263" s="45"/>
+      <c r="G263" s="47"/>
       <c r="H263" s="34" t="s">
         <v>1085</v>
       </c>
@@ -29685,8 +29976,8 @@
       <c r="D267" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E267" s="9" t="s">
-        <v>582</v>
+      <c r="E267" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F267" s="9" t="s">
         <v>17</v>
@@ -29818,10 +30109,10 @@
         <v>1093</v>
       </c>
       <c r="E274" s="5"/>
-      <c r="F274" s="45" t="s">
+      <c r="F274" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G274" s="45"/>
+      <c r="G274" s="47"/>
       <c r="H274" s="34" t="s">
         <v>1097</v>
       </c>
@@ -29933,8 +30224,8 @@
       <c r="D279" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E279" s="9" t="s">
-        <v>582</v>
+      <c r="E279" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F279" s="9" t="s">
         <v>17</v>
@@ -29977,8 +30268,8 @@
       <c r="D281" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E281" s="9" t="s">
-        <v>582</v>
+      <c r="E281" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>17</v>
@@ -30134,10 +30425,10 @@
         <v>1090</v>
       </c>
       <c r="E289" s="5"/>
-      <c r="F289" s="45" t="s">
+      <c r="F289" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G289" s="45"/>
+      <c r="G289" s="47"/>
       <c r="H289" s="34" t="s">
         <v>1091</v>
       </c>
@@ -30225,8 +30516,8 @@
       <c r="D293" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E293" s="9" t="s">
-        <v>582</v>
+      <c r="E293" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F293" s="9" t="s">
         <v>17</v>
@@ -30245,8 +30536,8 @@
       <c r="D294" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E294" s="9" t="s">
-        <v>582</v>
+      <c r="E294" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F294" s="9" t="s">
         <v>17</v>
@@ -30402,10 +30693,10 @@
         <v>1125</v>
       </c>
       <c r="E302" s="30"/>
-      <c r="F302" s="45" t="s">
+      <c r="F302" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G302" s="45"/>
+      <c r="G302" s="47"/>
       <c r="H302" s="34" t="s">
         <v>1126</v>
       </c>
@@ -30515,8 +30806,8 @@
       <c r="D307" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E307" s="9" t="s">
-        <v>582</v>
+      <c r="E307" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>17</v>
@@ -30581,8 +30872,8 @@
       <c r="D310" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E310" s="9" t="s">
-        <v>582</v>
+      <c r="E310" s="32" t="s">
+        <v>1224</v>
       </c>
       <c r="F310" s="9" t="s">
         <v>45</v>
@@ -30738,10 +31029,10 @@
         <v>1141</v>
       </c>
       <c r="E318" s="30"/>
-      <c r="F318" s="45" t="s">
+      <c r="F318" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G318" s="45"/>
+      <c r="G318" s="47"/>
       <c r="H318" s="34" t="s">
         <v>1142</v>
       </c>
@@ -30854,8 +31145,8 @@
       <c r="D323" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E323" s="9" t="s">
-        <v>582</v>
+      <c r="E323" s="32" t="s">
+        <v>1222</v>
       </c>
       <c r="F323" s="9" t="s">
         <v>17</v>
@@ -30918,8 +31209,8 @@
       <c r="D326" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E326" s="9" t="s">
-        <v>582</v>
+      <c r="E326" s="32" t="s">
+        <v>1222</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>17</v>
@@ -31075,10 +31366,10 @@
         <v>1160</v>
       </c>
       <c r="E334" s="30"/>
-      <c r="F334" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G334" s="45"/>
+      <c r="F334" s="47" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G334" s="47"/>
       <c r="H334" s="34" t="s">
         <v>1162</v>
       </c>
@@ -31131,7 +31422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="19"/>
       <c r="B337" s="9" t="s">
         <v>466</v>
@@ -31155,7 +31446,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="338" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="32" t="s">
         <v>1169</v>
@@ -31166,8 +31457,8 @@
       <c r="D338" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E338" s="9" t="s">
-        <v>582</v>
+      <c r="E338" s="32" t="s">
+        <v>1222</v>
       </c>
       <c r="F338" s="9" t="s">
         <v>17</v>
@@ -31177,7 +31468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="32" t="s">
         <v>1173</v>
@@ -31199,7 +31490,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="340" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="32" t="s">
         <v>1065</v>
@@ -31219,7 +31510,7 @@
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
     </row>
-    <row r="341" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="32" t="s">
         <v>1039</v>
@@ -31243,7 +31534,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="342" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="13" t="s">
         <v>46</v>
@@ -31265,7 +31556,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="343" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="13" t="s">
         <v>50</v>
@@ -31289,7 +31580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="344" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="13" t="s">
         <v>54</v>
@@ -31311,7 +31602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="345" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="13" t="s">
         <v>57</v>
@@ -31335,8 +31626,1159 @@
         <v>53</v>
       </c>
     </row>
+    <row r="347" spans="1:10" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="51"/>
+      <c r="B347" s="43">
+        <v>29</v>
+      </c>
+      <c r="C347" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D347" s="48" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E347" s="46"/>
+      <c r="F347" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G347" s="47"/>
+      <c r="H347" s="34" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="51"/>
+      <c r="B348" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H348" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="51"/>
+      <c r="B349" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C349" s="32" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D349" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="E349" s="29">
+        <v>2</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" s="32" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="51"/>
+      <c r="B350" s="32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C350" s="32" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E350" s="9">
+        <v>20</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G350" s="10"/>
+      <c r="H350" s="9"/>
+      <c r="J350" s="35" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="51"/>
+      <c r="B351" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C351" s="32" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E351" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G351" s="9"/>
+      <c r="H351" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="51"/>
+      <c r="B353" s="43">
+        <v>30</v>
+      </c>
+      <c r="C353" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" s="48" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E353" s="46"/>
+      <c r="F353" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G353" s="47"/>
+      <c r="H353" s="34" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="51"/>
+      <c r="B354" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H354" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="51"/>
+      <c r="B355" s="32" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C355" s="32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H355" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="51"/>
+      <c r="B356" s="32" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C356" s="32" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E356" s="9">
+        <v>20</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G356" s="10"/>
+      <c r="H356" s="9"/>
+      <c r="J356" s="35" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="51"/>
+      <c r="B357" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C357" s="32" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D357" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E357" s="9">
+        <v>100</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G357" s="9"/>
+      <c r="H357" s="9"/>
+    </row>
+    <row r="358" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="51"/>
+      <c r="B358" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C358" s="32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E358" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F358" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G358" s="9"/>
+      <c r="H358" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="51"/>
+      <c r="B360" s="43">
+        <v>31</v>
+      </c>
+      <c r="C360" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360" s="45" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E360" s="43"/>
+      <c r="F360" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G360" s="47"/>
+      <c r="H360" s="34" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="51"/>
+      <c r="B361" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H361" s="37" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="51"/>
+      <c r="B362" s="32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C362" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D362" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="E362" s="11">
+        <v>7</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G362" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H362" s="32" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J362" s="35" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="51"/>
+      <c r="B363" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C363" s="32" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D363" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="E363" s="29">
+        <v>2</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G363" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H363" s="32" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="51"/>
+      <c r="B364" s="32" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C364" s="32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E364" s="9">
+        <v>50</v>
+      </c>
+      <c r="F364" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G364" s="9"/>
+      <c r="H364" s="32"/>
+    </row>
+    <row r="365" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="51"/>
+      <c r="B365" s="32" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C365" s="32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D365" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F365" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G365" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H365" s="32" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="51"/>
+      <c r="B366" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C366" s="32" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D366" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="E366" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F366" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G366" s="9"/>
+      <c r="H366" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="51"/>
+      <c r="B367" s="32" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C367" s="32" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D367" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F367" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G367" s="9"/>
+      <c r="H367" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="51"/>
+      <c r="B368" s="32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C368" s="32" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E368" s="9">
+        <v>500</v>
+      </c>
+      <c r="F368" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
+    </row>
+    <row r="369" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="51"/>
+      <c r="B369" s="32" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C369" s="32" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E369" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F369" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G369" s="9"/>
+      <c r="H369" s="32" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="51"/>
+      <c r="B370" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C370" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E370" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F370" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G370" s="10"/>
+      <c r="H370" s="32" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="51"/>
+      <c r="B371" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F371" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H371" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="51"/>
+      <c r="B372" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E372" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F372" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G372" s="10"/>
+      <c r="H372" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="51"/>
+      <c r="B373" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D373" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E373" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F373" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G373" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H373" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="51"/>
+      <c r="B375" s="43">
+        <v>32</v>
+      </c>
+      <c r="C375" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D375" s="45" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E375" s="43"/>
+      <c r="F375" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G375" s="47"/>
+      <c r="H375" s="34" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I375" s="41" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="51"/>
+      <c r="B376" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H376" s="37" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="51"/>
+      <c r="B377" s="32" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C377" s="32" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D377" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F377" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H377" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J377" s="35"/>
+    </row>
+    <row r="378" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="51"/>
+      <c r="B378" s="32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D378" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="E378" s="11">
+        <v>7</v>
+      </c>
+      <c r="F378" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G378" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H378" s="32" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="51"/>
+      <c r="B379" s="32" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C379" s="32" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E379" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G379" s="9"/>
+      <c r="H379" s="32"/>
+    </row>
+    <row r="380" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="51"/>
+      <c r="B380" s="32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C380" s="32" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E380" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F380" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G380" s="9"/>
+      <c r="H380" s="32"/>
+    </row>
+    <row r="381" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="51"/>
+      <c r="B381" s="32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C381" s="32" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E381" s="32" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F381" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G381" s="9"/>
+      <c r="H381" s="36"/>
+    </row>
+    <row r="382" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="51"/>
+      <c r="B382" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C382" s="32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E382" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F382" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G382" s="9"/>
+      <c r="H382" s="32"/>
+    </row>
+    <row r="383" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="51"/>
+      <c r="B383" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E383" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F383" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G383" s="10"/>
+      <c r="H383" s="32" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="51"/>
+      <c r="B384" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C384" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E384" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F384" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G384" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H384" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="51"/>
+      <c r="B385" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E385" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F385" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" s="10"/>
+      <c r="H385" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="51"/>
+      <c r="B386" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E386" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F386" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G386" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H386" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="51"/>
+      <c r="B388" s="43">
+        <v>33</v>
+      </c>
+      <c r="C388" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D388" s="45" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E388" s="43"/>
+      <c r="F388" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G388" s="47"/>
+      <c r="H388" s="34" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I388" s="41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J388" s="52" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="51"/>
+      <c r="B389" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H389" s="37" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="51"/>
+      <c r="B390" s="32" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C390" s="32" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F390" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G390" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H390" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="35"/>
+    </row>
+    <row r="391" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="18"/>
+      <c r="B391" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C391" s="32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F391" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H391" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="51"/>
+      <c r="B392" s="32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C392" s="32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D392" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="E392" s="11">
+        <v>7</v>
+      </c>
+      <c r="F392" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G392" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H392" s="32" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="51"/>
+      <c r="B393" s="32" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C393" s="32" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D393" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F393" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G393" s="9"/>
+      <c r="H393" s="32"/>
+    </row>
+    <row r="394" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="51"/>
+      <c r="B394" s="32" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C394" s="32" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D394" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F394" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="9"/>
+      <c r="H394" s="32"/>
+    </row>
+    <row r="395" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="51"/>
+      <c r="B395" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C395" s="32" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D395" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E395" s="9">
+        <v>100</v>
+      </c>
+      <c r="F395" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G395" s="9"/>
+      <c r="H395" s="32"/>
+    </row>
+    <row r="396" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="51"/>
+      <c r="B396" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E396" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F396" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G396" s="10"/>
+      <c r="H396" s="32" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="51"/>
+      <c r="B397" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F397" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H397" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="51"/>
+      <c r="B398" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E398" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F398" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G398" s="10"/>
+      <c r="H398" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="51"/>
+      <c r="B399" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D399" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F399" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H399" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="61">
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="F388:G388"/>
+    <mergeCell ref="D347:E347"/>
+    <mergeCell ref="F347:G347"/>
+    <mergeCell ref="D353:E353"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="F360:G360"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
     <mergeCell ref="D257:E257"/>
     <mergeCell ref="F257:G257"/>
     <mergeCell ref="D263:E263"/>
@@ -31353,44 +32795,6 @@
     <mergeCell ref="F206:G206"/>
     <mergeCell ref="D186:E186"/>
     <mergeCell ref="F186:G186"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="F334:G334"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
